--- a/trunk/Admin/Budgets/bb8.xlsx
+++ b/trunk/Admin/Budgets/bb8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jackson\Documents\GitHub\AT\trunk\Admin\Budgets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB34357-71C4-4286-BDD7-0C5C058F1C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49CE236-381E-4910-972A-3657CDEE2680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>see Production/3D/bb8</t>
+  </si>
+  <si>
+    <t>__STEREO_JACK_SM</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/cui-devices/SJ-3523-SMT-TR/281297</t>
   </si>
 </sst>
 </file>
@@ -150,7 +156,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -164,8 +170,14 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -449,19 +461,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="41.28515625" style="6" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -478,7 +490,7 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -493,10 +505,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="4">
-        <f>B2*C2</f>
+        <f t="shared" ref="D2:D8" si="0">B2*C2</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -511,52 +523,52 @@
         <v>1</v>
       </c>
       <c r="D3" s="4">
-        <f>B3*C3</f>
+        <f t="shared" si="0"/>
         <v>0.27</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B4" s="4">
-        <v>7.3999999999999996E-2</v>
+        <v>1.01</v>
       </c>
       <c r="C4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="4">
-        <f>B4*C4</f>
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>1.01</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="4">
-        <v>0</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="4">
-        <f>B5*C5</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="4">
         <v>0</v>
@@ -565,16 +577,16 @@
         <v>1</v>
       </c>
       <c r="D6" s="4">
-        <f>B6*C6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="4">
         <v>0</v>
@@ -583,10 +595,28 @@
         <v>1</v>
       </c>
       <c r="D7" s="4">
-        <f>B7*C7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -594,8 +624,9 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{77CB014E-A6A7-46EE-98AB-CECF2544669C}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{BE0B3A13-55CA-45E9-B85C-2AEEDEEF6D99}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{BE0B3A13-55CA-45E9-B85C-2AEEDEEF6D99}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>